--- a/【长沙】-张家衡进度表.xlsx
+++ b/【长沙】-张家衡进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>巩固联系了之前学的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了主页的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习了之前的知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +504,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -552,10 +564,16 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">

--- a/【长沙】-张家衡进度表.xlsx
+++ b/【长沙】-张家衡进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,6 +110,22 @@
   </si>
   <si>
     <t>复习了之前的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了杂志页面的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页的数据传输问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识复习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,7 +520,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -582,10 +598,18 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
